--- a/Australia States and Territories.xlsx
+++ b/Australia States and Territories.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ABS\Labour Force\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993039A1-CA21-4545-9770-BE967CDD1729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>#00843D</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>#87CEEB</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>#000080</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>#006A4E</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>#C85B0A</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>#FFD700</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Colour Code</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +167,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}" name="States_and_Territories" displayName="States_and_Territories" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{956A31EA-AA87-48F7-A876-EB700254BC1B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0857B6FA-9A65-4FBA-BFBB-30CA0484F3FC}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{AAA1DF37-730C-4CAC-AD30-E09188B5B5A5}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{099F2D62-01BE-43C2-B75C-1B4D791DDBDF}" name="Colour Code"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +443,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>